--- a/script/samarkand/samarkand_indeks_2022_10.xlsx
+++ b/script/samarkand/samarkand_indeks_2022_10.xlsx
@@ -54,7 +54,7 @@
     <t xml:space="preserve">Жомбой</t>
   </si>
   <si>
-    <t xml:space="preserve">Самарқанд шаҳри</t>
+    <t xml:space="preserve">Самарқанд ш.</t>
   </si>
   <si>
     <t xml:space="preserve">Ургут</t>
@@ -72,16 +72,16 @@
     <t xml:space="preserve">Иштиҳон</t>
   </si>
   <si>
-    <t xml:space="preserve">Патдарғом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Самарқанд тумани</t>
+    <t xml:space="preserve">Пастдарғом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Самарқанд</t>
   </si>
   <si>
     <t xml:space="preserve">Нуробод</t>
   </si>
   <si>
-    <t xml:space="preserve">Тайлоқ</t>
+    <t xml:space="preserve">Тойлоқ</t>
   </si>
   <si>
     <t xml:space="preserve">Каттақўрғон ш.</t>
